--- a/InputData/bldgs/BFoCSbQL/BAU Frac of Components Sold by Quality Lvl.xlsx
+++ b/InputData/bldgs/BFoCSbQL/BAU Frac of Components Sold by Quality Lvl.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\BFoCSbQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ar/bldgs/bfocsbql/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72F3DEE-3480-3144-895A-6B2EEEDE331B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="20115" windowHeight="9780"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="20120" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,18 @@
     <sheet name="BFoCSbQL-rural-residential" sheetId="5" r:id="rId4"/>
     <sheet name="BFoCSbQL-commercial" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -271,7 +283,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -350,7 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -381,6 +393,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -475,6 +488,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -510,6 +540,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -685,25 +732,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="54.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="18">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,52 +761,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -768,49 +818,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="59.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="59.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -830,7 +880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -850,7 +900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>16</v>
       </c>
@@ -867,7 +917,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -884,7 +934,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
         <v>18</v>
@@ -902,7 +952,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>65</v>
       </c>
@@ -922,7 +972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="12" t="s">
         <v>13</v>
@@ -940,7 +990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="7" t="s">
         <v>14</v>
@@ -958,7 +1008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -978,7 +1028,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -999,7 +1049,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>27</v>
       </c>
@@ -1017,7 +1067,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>28</v>
       </c>
@@ -1035,7 +1085,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1055,7 +1105,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>34</v>
       </c>
@@ -1072,7 +1122,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>36</v>
       </c>
@@ -1089,7 +1139,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>40</v>
       </c>
@@ -1106,7 +1156,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>41</v>
       </c>
@@ -1123,7 +1173,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>42</v>
       </c>
@@ -1140,7 +1190,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>33</v>
       </c>
@@ -1157,7 +1207,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="7" t="s">
         <v>35</v>
@@ -1175,7 +1225,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -1195,7 +1245,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>45</v>
       </c>
@@ -1212,7 +1262,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>46</v>
       </c>
@@ -1229,7 +1279,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>47</v>
       </c>
@@ -1246,7 +1296,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>48</v>
       </c>
@@ -1263,7 +1313,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1284,7 +1334,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>56</v>
       </c>
@@ -1302,7 +1352,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>57</v>
       </c>
@@ -1320,7 +1370,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>58</v>
       </c>
@@ -1338,7 +1388,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>59</v>
       </c>
@@ -1356,7 +1406,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>60</v>
       </c>
@@ -1374,7 +1424,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>61</v>
       </c>
@@ -1394,33 +1444,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F12" r:id="rId1"/>
-    <hyperlink ref="F8" r:id="rId2"/>
-    <hyperlink ref="F13" r:id="rId3"/>
-    <hyperlink ref="F14" r:id="rId4"/>
-    <hyperlink ref="F9" r:id="rId5"/>
-    <hyperlink ref="F10" r:id="rId6"/>
-    <hyperlink ref="F11" r:id="rId7"/>
-    <hyperlink ref="F15" r:id="rId8"/>
-    <hyperlink ref="F16" r:id="rId9"/>
-    <hyperlink ref="F17:F18" r:id="rId10" display="http://buildingsdatabook.eren.doe.gov/docs/xls_pdf/9.1.8.xlsx"/>
-    <hyperlink ref="F19" r:id="rId11"/>
-    <hyperlink ref="F27" r:id="rId12"/>
-    <hyperlink ref="F28:F31" r:id="rId13" display="http://buildingsdatabook.eren.doe.gov/docs/xls_pdf/9.1.13.xlsx"/>
-    <hyperlink ref="F20" r:id="rId14"/>
-    <hyperlink ref="F21" r:id="rId15"/>
-    <hyperlink ref="F25" r:id="rId16"/>
-    <hyperlink ref="F26" r:id="rId17"/>
-    <hyperlink ref="F22" r:id="rId18"/>
-    <hyperlink ref="F23" r:id="rId19"/>
-    <hyperlink ref="F24" r:id="rId20"/>
+    <hyperlink ref="F12" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="F13" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="F14" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="F9" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="F10" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="F11" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="F15" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="F16" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="F17:F18" r:id="rId10" display="http://buildingsdatabook.eren.doe.gov/docs/xls_pdf/9.1.8.xlsx" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="F19" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="F27" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="F28:F31" r:id="rId13" display="http://buildingsdatabook.eren.doe.gov/docs/xls_pdf/9.1.13.xlsx" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="F20" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="F21" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="F25" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="F26" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="F22" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="F23" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="F24" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -1428,14 +1478,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>78</v>
       </c>
@@ -1446,7 +1496,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -1459,7 +1509,7 @@
         <v>0.59781931464174454</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -1472,7 +1522,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -1485,7 +1535,7 @@
         <v>0.43390965732087228</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1498,7 +1548,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1511,7 +1561,7 @@
         <v>0.67017241379310344</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1534,7 +1584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -1542,14 +1592,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>78</v>
       </c>
@@ -1560,7 +1610,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -1573,7 +1623,7 @@
         <v>0.59781931464174454</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -1586,7 +1636,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -1599,7 +1649,7 @@
         <v>0.43390965732087228</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1612,7 +1662,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1625,7 +1675,7 @@
         <v>0.67017241379310344</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1645,7 +1695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -1653,14 +1703,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>78</v>
       </c>
@@ -1671,7 +1721,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -1684,7 +1734,7 @@
         <v>0.59781931464174454</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -1697,7 +1747,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -1710,7 +1760,7 @@
         <v>0.43390965732087228</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1723,7 +1773,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1736,7 +1786,7 @@
         <v>0.46288946910356832</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>

--- a/InputData/bldgs/BFoCSbQL/BAU Frac of Components Sold by Quality Lvl.xlsx
+++ b/InputData/bldgs/BFoCSbQL/BAU Frac of Components Sold by Quality Lvl.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ar/bldgs/bfocsbql/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/bldgs/bfocsbql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72F3DEE-3480-3144-895A-6B2EEEDE331B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B514F2EA-7530-5E42-AD4D-893A4C686391}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="460" windowWidth="20120" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
